--- a/porocilo.xlsx
+++ b/porocilo.xlsx
@@ -63,10 +63,10 @@
     <t>% returns</t>
   </si>
   <si>
-    <t>Benchmark</t>
+    <t>Sharpov količnik</t>
   </si>
   <si>
-    <t>Sharpe</t>
+    <t>Povprečni na leto</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,7 +116,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -124,7 +124,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1392,11 +1395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100822016"/>
-        <c:axId val="100823808"/>
+        <c:axId val="101987456"/>
+        <c:axId val="101988992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100822016"/>
+        <c:axId val="101987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,14 +1409,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100823808"/>
+        <c:crossAx val="101988992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100823808"/>
+        <c:axId val="101988992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100822016"/>
+        <c:crossAx val="101987456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1450,16 +1453,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1482,17 +1485,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G42:M45" totalsRowShown="0">
-  <autoFilter ref="G42:M45"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G42:N45" totalsRowShown="0">
+  <autoFilter ref="G42:N45"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Letni donos"/>
-    <tableColumn id="2" name="2010" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="2011" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="2012" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="5" name="2013" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="2014" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Skupaj" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="2" name="2010" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="2011" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="2012" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="2013" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="2014" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="7" name="Skupaj" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>B62/B2-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Povprečni na leto" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table3[[#This Row],[Skupaj]]/5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1786,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V249"/>
+  <dimension ref="A1:W249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y208" sqref="Y208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,10 +1807,12 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="15" max="16" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,7 +2263,7 @@
         <v>122374.23648011124</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41122</v>
       </c>
@@ -2269,7 +2277,7 @@
         <v>125437.86600249827</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41156</v>
       </c>
@@ -2283,7 +2291,7 @@
         <v>128146.23673987035</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41183</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>127784.77047608497</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41214</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>123160.58079081369</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41246</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>125526.48969940523</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41276</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>130025.86131155431</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41306</v>
       </c>
@@ -2353,7 +2361,7 @@
         <v>133387.54531459502</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41334</v>
       </c>
@@ -2367,7 +2375,7 @@
         <v>137693.91208682067</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41365</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>140154.46117174279</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41395</v>
       </c>
@@ -2415,29 +2423,29 @@
       <c r="M42" t="s">
         <v>6</v>
       </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" t="s">
         <v>2</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>1</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>3</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>4</v>
       </c>
-      <c r="T42" t="s">
-        <v>15</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>3</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41428</v>
       </c>
@@ -2477,31 +2485,36 @@
         <f t="shared" ref="M43" si="0">B62/B2-1</f>
         <v>0.97188724191766007</v>
       </c>
-      <c r="P43" s="4">
+      <c r="N43" s="4">
+        <f>Table3[[#This Row],[Skupaj]]/5</f>
+        <v>0.19437744838353202</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="Q43" s="4">
         <f>_xlfn.STDEV.P(B65:B124)*SQRT(12)</f>
         <v>5.5662937147872883E-2</v>
       </c>
-      <c r="Q43" s="4">
-        <f t="shared" ref="Q43:R43" si="1">_xlfn.STDEV.P(C65:C124)*SQRT(12)</f>
+      <c r="R43" s="4">
+        <f t="shared" ref="R43:S43" si="1">_xlfn.STDEV.P(C65:C124)*SQRT(12)</f>
         <v>6.0480444391891347E-2</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="1"/>
         <v>4.0172054538417323E-2</v>
       </c>
-      <c r="T43" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43">
+      <c r="U43" t="s">
+        <v>15</v>
+      </c>
+      <c r="V43">
         <f>AVERAGE(C190:C249)/_xlfn.STDEV.P(C190:C249)*SQRT(12)</f>
         <v>-0.13772577461253216</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <f>AVERAGE(D190:D249)/_xlfn.STDEV.P(D190:D249)*SQRT(12)</f>
         <v>0.31751187952298698</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41456</v>
       </c>
@@ -2541,8 +2554,13 @@
         <f>C62/C2-1</f>
         <v>1.2359281439999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N44" s="4">
+        <f>Table3[[#This Row],[Skupaj]]/5</f>
+        <v>0.24718562879999997</v>
+      </c>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41487</v>
       </c>
@@ -2582,8 +2600,13 @@
         <f>D62/D2-1</f>
         <v>0.67543385501621578</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N45" s="4">
+        <f>Table3[[#This Row],[Skupaj]]/5</f>
+        <v>0.13508677100324315</v>
+      </c>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41520</v>
       </c>
@@ -2597,7 +2620,7 @@
         <v>145826.47327346139</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41548</v>
       </c>
@@ -2611,7 +2634,7 @@
         <v>146012.22013820714</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41579</v>
       </c>
@@ -3683,7 +3706,7 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
-        <f t="shared" ref="B129:D188" si="6">B4/B3-1</f>
+        <f t="shared" ref="B129:D187" si="6">B4/B3-1</f>
         <v>2.0470123884235525E-2</v>
       </c>
       <c r="C129" s="2">
@@ -4530,7 +4553,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C191" s="2">
-        <f t="shared" ref="C191:C251" si="7">B129-C129</f>
+        <f t="shared" ref="C191:C249" si="7">B129-C129</f>
         <v>-5.7849967385340095E-2</v>
       </c>
       <c r="D191" s="2">
